--- a/Testgögn.xlsx
+++ b/Testgögn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjorn\PycharmProjects\Thrifalisti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B22ABF0-1658-4632-B0D3-9BDE6EDC9572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC8E06-1C01-48BF-91CF-942CFE24548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="100">
   <si>
     <t xml:space="preserve"> Rauða hús 2.-3. bekkur</t>
   </si>
@@ -1447,7 +1447,7 @@
   <dimension ref="A1:AMJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -1542,7 +1542,9 @@
         <v>9</v>
       </c>
       <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>

--- a/Testgögn.xlsx
+++ b/Testgögn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjorn\PycharmProjects\Thrifalisti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC8E06-1C01-48BF-91CF-942CFE24548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD72EBBC-56BC-44B7-8468-820BA072069E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -919,9 +919,6 @@
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1015,6 +1012,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1447,227 +1447,227 @@
   <dimension ref="A1:AMJ99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="19.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="30.875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="2" customWidth="1"/>
-    <col min="10" max="1023" width="8.25" style="2"/>
-    <col min="1024" max="1024" width="8.6875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.5625" style="1" customWidth="1"/>
+    <col min="2" max="7" width="19.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="30.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="1" customWidth="1"/>
+    <col min="10" max="1023" width="8.25" style="1"/>
+    <col min="1024" max="1024" width="8.6875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" ht="26.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1024" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="2" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="2" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:1024" s="17" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="14" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:1024" s="16" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="2" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="AMJ10" s="18"/>
-    </row>
-    <row r="11" spans="1:1024" s="17" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
+      <c r="I10" s="1"/>
+      <c r="AMJ10" s="17"/>
+    </row>
+    <row r="11" spans="1:1024" s="16" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:1024" s="17" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="14" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:1024" s="16" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="2" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:1024" s="17" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="20" t="s">
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:1024" s="16" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:1024" s="17" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="2"/>
-      <c r="AMJ14" s="22"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="1"/>
+      <c r="AMJ14" s="21"/>
     </row>
     <row r="15" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="14"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -2686,16 +2686,16 @@
       <c r="AMJ15"/>
     </row>
     <row r="16" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="2" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I16"/>
@@ -3716,16 +3716,16 @@
       <c r="AMJ16"/>
     </row>
     <row r="17" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="2" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I17"/>
@@ -4746,40 +4746,40 @@
       <c r="AMJ17"/>
     </row>
     <row r="18" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="2" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
@@ -5797,55 +5797,55 @@
       <c r="AMJ20"/>
     </row>
     <row r="21" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="2" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:1024" ht="18.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="25" spans="1:1024" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="H25" s="25"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="25" spans="1:1024" s="1" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="H25" s="24"/>
       <c r="AMI25"/>
       <c r="AMJ25"/>
     </row>
     <row r="27" spans="1:1024" x14ac:dyDescent="0.35">
-      <c r="H27" s="26"/>
+      <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:1024" x14ac:dyDescent="0.35">
-      <c r="A28" s="26"/>
-      <c r="B28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="AMF28"/>
       <c r="AMG28"/>
       <c r="AMH28"/>
@@ -5853,9 +5853,9 @@
       <c r="AMJ28"/>
     </row>
     <row r="29" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="3"/>
-      <c r="D29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="A29" s="2"/>
+      <c r="D29" s="26"/>
+      <c r="G29" s="26"/>
       <c r="AMF29"/>
       <c r="AMG29"/>
       <c r="AMH29"/>
@@ -5863,8 +5863,8 @@
       <c r="AMJ29"/>
     </row>
     <row r="30" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
-      <c r="G30" s="27"/>
+      <c r="A30" s="2"/>
+      <c r="G30" s="26"/>
       <c r="ALX30"/>
       <c r="ALY30"/>
       <c r="ALZ30"/>
@@ -5880,13 +5880,13 @@
       <c r="AMJ30"/>
     </row>
     <row r="31" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
       <c r="AMB31"/>
       <c r="AMC31"/>
       <c r="AMD31"/>
@@ -5897,9 +5897,9 @@
       <c r="AMI31"/>
       <c r="AMJ31"/>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="29"/>
-      <c r="C32" s="27"/>
+    <row r="32" spans="1:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="28"/>
+      <c r="C32" s="26"/>
       <c r="ALW32"/>
       <c r="ALX32"/>
       <c r="ALY32"/>
@@ -5915,9 +5915,9 @@
       <c r="AMI32"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="27"/>
-      <c r="B33" s="29"/>
+    <row r="33" spans="1:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="26"/>
+      <c r="B33" s="28"/>
       <c r="AMA33"/>
       <c r="AMB33"/>
       <c r="AMC33"/>
@@ -5929,10 +5929,10 @@
       <c r="AMI33"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="3"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
+    <row r="34" spans="1:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
       <c r="AMA34"/>
       <c r="AMB34"/>
       <c r="AMC34"/>
@@ -5944,10 +5944,10 @@
       <c r="AMI34"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="27"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="31"/>
+    <row r="35" spans="1:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="26"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="30"/>
       <c r="AMA35"/>
       <c r="AMB35"/>
       <c r="AMC35"/>
@@ -5959,9 +5959,9 @@
       <c r="AMI35"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="27"/>
-      <c r="B36" s="30"/>
+    <row r="36" spans="1:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="26"/>
+      <c r="B36" s="29"/>
       <c r="AMA36"/>
       <c r="AMB36"/>
       <c r="AMC36"/>
@@ -5974,9 +5974,9 @@
       <c r="AMJ36"/>
     </row>
     <row r="37" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3"/>
-      <c r="B37" s="27"/>
-      <c r="D37" s="27"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="26"/>
+      <c r="D37" s="26"/>
       <c r="AMF37"/>
       <c r="AMG37"/>
       <c r="AMH37"/>
@@ -5984,10 +5984,10 @@
       <c r="AMJ37"/>
     </row>
     <row r="38" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="H38" s="31"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="H38" s="30"/>
       <c r="AMF38"/>
       <c r="AMG38"/>
       <c r="AMH38"/>
@@ -5995,9 +5995,9 @@
       <c r="AMJ38"/>
     </row>
     <row r="39" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="31"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="31"/>
+      <c r="A39" s="30"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="30"/>
       <c r="AMF39"/>
       <c r="AMG39"/>
       <c r="AMH39"/>
@@ -6005,7 +6005,7 @@
       <c r="AMJ39"/>
     </row>
     <row r="40" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
       <c r="AMF40"/>
       <c r="AMG40"/>
       <c r="AMH40"/>
@@ -6020,8 +6020,8 @@
       <c r="AMJ41"/>
     </row>
     <row r="42" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G42" s="27"/>
-      <c r="H42" s="31"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="30"/>
       <c r="AMF42"/>
       <c r="AMG42"/>
       <c r="AMH42"/>
@@ -6036,7 +6036,7 @@
       <c r="AMJ43"/>
     </row>
     <row r="44" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C44" s="27"/>
+      <c r="C44" s="26"/>
       <c r="AMF44"/>
       <c r="AMG44"/>
       <c r="AMH44"/>
@@ -6044,9 +6044,9 @@
       <c r="AMJ44"/>
     </row>
     <row r="45" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="31"/>
+      <c r="D45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="30"/>
       <c r="AMF45"/>
       <c r="AMG45"/>
       <c r="AMH45"/>
@@ -6054,7 +6054,7 @@
       <c r="AMJ45"/>
     </row>
     <row r="46" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D46" s="27"/>
+      <c r="D46" s="26"/>
       <c r="AMF46"/>
       <c r="AMG46"/>
       <c r="AMH46"/>
@@ -6069,200 +6069,200 @@
       <c r="AMJ47"/>
     </row>
     <row r="48" spans="1:1024" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="G48" s="27"/>
-      <c r="H48" s="31"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="30"/>
       <c r="AMF48"/>
       <c r="AMG48"/>
       <c r="AMH48"/>
       <c r="AMI48"/>
       <c r="AMJ48"/>
     </row>
-    <row r="49" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="3"/>
+    <row r="49" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
       <c r="AMF49"/>
       <c r="AMG49"/>
       <c r="AMH49"/>
       <c r="AMI49"/>
       <c r="AMJ49"/>
     </row>
-    <row r="50" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="3"/>
+    <row r="50" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
       <c r="AMF50"/>
       <c r="AMG50"/>
       <c r="AMH50"/>
       <c r="AMI50"/>
       <c r="AMJ50"/>
     </row>
-    <row r="51" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H51" s="31"/>
+    <row r="51" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H51" s="30"/>
       <c r="AMF51"/>
       <c r="AMG51"/>
       <c r="AMH51"/>
       <c r="AMI51"/>
       <c r="AMJ51"/>
     </row>
-    <row r="52" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF52"/>
       <c r="AMG52"/>
       <c r="AMH52"/>
       <c r="AMI52"/>
       <c r="AMJ52"/>
     </row>
-    <row r="53" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF53"/>
       <c r="AMG53"/>
       <c r="AMH53"/>
       <c r="AMI53"/>
       <c r="AMJ53"/>
     </row>
-    <row r="54" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF54"/>
       <c r="AMG54"/>
       <c r="AMH54"/>
       <c r="AMI54"/>
       <c r="AMJ54"/>
     </row>
-    <row r="55" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF55"/>
       <c r="AMG55"/>
       <c r="AMH55"/>
       <c r="AMI55"/>
       <c r="AMJ55"/>
     </row>
-    <row r="56" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF56"/>
       <c r="AMG56"/>
       <c r="AMH56"/>
       <c r="AMI56"/>
       <c r="AMJ56"/>
     </row>
-    <row r="57" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF57"/>
       <c r="AMG57"/>
       <c r="AMH57"/>
       <c r="AMI57"/>
       <c r="AMJ57"/>
     </row>
-    <row r="58" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF58"/>
       <c r="AMG58"/>
       <c r="AMH58"/>
       <c r="AMI58"/>
       <c r="AMJ58"/>
     </row>
-    <row r="59" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF59"/>
       <c r="AMG59"/>
       <c r="AMH59"/>
       <c r="AMI59"/>
       <c r="AMJ59"/>
     </row>
-    <row r="60" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF60"/>
       <c r="AMG60"/>
       <c r="AMH60"/>
       <c r="AMI60"/>
       <c r="AMJ60"/>
     </row>
-    <row r="61" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF61"/>
       <c r="AMG61"/>
       <c r="AMH61"/>
       <c r="AMI61"/>
       <c r="AMJ61"/>
     </row>
-    <row r="62" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF62"/>
       <c r="AMG62"/>
       <c r="AMH62"/>
       <c r="AMI62"/>
       <c r="AMJ62"/>
     </row>
-    <row r="63" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF63"/>
       <c r="AMG63"/>
       <c r="AMH63"/>
       <c r="AMI63"/>
       <c r="AMJ63"/>
     </row>
-    <row r="64" spans="2:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF64"/>
       <c r="AMG64"/>
       <c r="AMH64"/>
       <c r="AMI64"/>
       <c r="AMJ64"/>
     </row>
-    <row r="65" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF65"/>
       <c r="AMG65"/>
       <c r="AMH65"/>
       <c r="AMI65"/>
       <c r="AMJ65"/>
     </row>
-    <row r="66" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF66"/>
       <c r="AMG66"/>
       <c r="AMH66"/>
       <c r="AMI66"/>
       <c r="AMJ66"/>
     </row>
-    <row r="67" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF67"/>
       <c r="AMG67"/>
       <c r="AMH67"/>
       <c r="AMI67"/>
       <c r="AMJ67"/>
     </row>
-    <row r="68" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF68"/>
       <c r="AMG68"/>
       <c r="AMH68"/>
       <c r="AMI68"/>
       <c r="AMJ68"/>
     </row>
-    <row r="69" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF69"/>
       <c r="AMG69"/>
       <c r="AMH69"/>
       <c r="AMI69"/>
       <c r="AMJ69"/>
     </row>
-    <row r="70" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF70"/>
       <c r="AMG70"/>
       <c r="AMH70"/>
       <c r="AMI70"/>
       <c r="AMJ70"/>
     </row>
-    <row r="71" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF71"/>
       <c r="AMG71"/>
       <c r="AMH71"/>
       <c r="AMI71"/>
       <c r="AMJ71"/>
     </row>
-    <row r="72" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF72"/>
       <c r="AMG72"/>
       <c r="AMH72"/>
       <c r="AMI72"/>
       <c r="AMJ72"/>
     </row>
-    <row r="73" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF73"/>
       <c r="AMG73"/>
       <c r="AMH73"/>
       <c r="AMI73"/>
       <c r="AMJ73"/>
     </row>
-    <row r="74" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF74"/>
       <c r="AMG74"/>
       <c r="AMH74"/>
       <c r="AMI74"/>
       <c r="AMJ74"/>
     </row>
-    <row r="75" spans="5:1024" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:1024" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AMF75"/>
       <c r="AMG75"/>
       <c r="AMH75"/>
@@ -6270,147 +6270,147 @@
       <c r="AMJ75"/>
     </row>
     <row r="76" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
       <c r="AMJ76"/>
     </row>
     <row r="77" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
       <c r="AMJ77"/>
     </row>
     <row r="78" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
       <c r="AMJ78"/>
     </row>
     <row r="79" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
       <c r="AMJ79"/>
     </row>
     <row r="80" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
       <c r="AMJ80"/>
     </row>
     <row r="81" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
       <c r="AMJ81"/>
     </row>
     <row r="82" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
       <c r="AMJ82"/>
     </row>
     <row r="83" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
       <c r="AMJ83"/>
     </row>
     <row r="84" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
       <c r="AMJ84"/>
     </row>
     <row r="85" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
       <c r="AMJ85"/>
     </row>
     <row r="86" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
       <c r="AMJ86"/>
     </row>
     <row r="87" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
       <c r="AMJ87"/>
     </row>
     <row r="88" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
       <c r="AMJ88"/>
     </row>
     <row r="89" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
       <c r="AMJ89"/>
     </row>
     <row r="90" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
       <c r="AMJ90"/>
     </row>
     <row r="91" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
       <c r="AMJ91"/>
     </row>
     <row r="92" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
       <c r="AMJ92"/>
     </row>
     <row r="93" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
       <c r="AMJ93"/>
     </row>
     <row r="94" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
       <c r="AMJ94"/>
     </row>
     <row r="95" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
       <c r="AMJ95"/>
     </row>
     <row r="96" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
       <c r="AMJ96"/>
     </row>
     <row r="97" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
       <c r="AMJ97"/>
     </row>
     <row r="98" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
       <c r="AMJ98"/>
     </row>
     <row r="99" spans="5:1024" x14ac:dyDescent="0.35">
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
       <c r="AMJ99"/>
     </row>
   </sheetData>
@@ -6450,17 +6450,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="2:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C2">
@@ -6468,7 +6468,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C3">
@@ -6482,7 +6482,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C4">
@@ -6490,7 +6490,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C5">
@@ -6498,7 +6498,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C6">
@@ -6509,7 +6509,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C7">
@@ -6517,7 +6517,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>43</v>
       </c>
       <c r="C8">
@@ -6525,7 +6525,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>44</v>
       </c>
       <c r="C9">
@@ -6533,7 +6533,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>45</v>
       </c>
       <c r="C10">
@@ -6544,7 +6544,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>47</v>
       </c>
       <c r="C11">
@@ -6552,7 +6552,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C12">
@@ -6560,7 +6560,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C13">
@@ -6571,7 +6571,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C14">
@@ -6582,7 +6582,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C15">
@@ -6590,7 +6590,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C16">
@@ -6598,7 +6598,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C17">
@@ -6609,7 +6609,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>54</v>
       </c>
       <c r="C18">
@@ -6617,7 +6617,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>55</v>
       </c>
       <c r="C19">
@@ -6625,7 +6625,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C20">
@@ -6633,7 +6633,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C21">
@@ -6641,7 +6641,7 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>58</v>
       </c>
       <c r="C22">
@@ -6649,7 +6649,7 @@
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>59</v>
       </c>
       <c r="C23">
@@ -6660,7 +6660,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>60</v>
       </c>
       <c r="C24">
@@ -6668,7 +6668,7 @@
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>61</v>
       </c>
       <c r="C25">
@@ -6679,7 +6679,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>62</v>
       </c>
       <c r="C26">
@@ -6690,7 +6690,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>63</v>
       </c>
       <c r="C27">
@@ -6701,7 +6701,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C28">
@@ -6709,7 +6709,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>65</v>
       </c>
       <c r="C29">
@@ -6717,7 +6717,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>66</v>
       </c>
       <c r="C30">
@@ -6725,7 +6725,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C31">
@@ -6733,7 +6733,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>68</v>
       </c>
       <c r="C32">
@@ -6741,7 +6741,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>69</v>
       </c>
       <c r="C33">
@@ -6752,7 +6752,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C34">
@@ -6763,7 +6763,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>71</v>
       </c>
       <c r="C35">
@@ -6774,7 +6774,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C36">
@@ -6782,7 +6782,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>73</v>
       </c>
       <c r="C37">
@@ -6790,7 +6790,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C38">
@@ -6798,7 +6798,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>75</v>
       </c>
       <c r="C39">
@@ -6806,7 +6806,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>76</v>
       </c>
       <c r="C40">
@@ -6814,7 +6814,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>77</v>
       </c>
       <c r="C41">
@@ -6822,7 +6822,7 @@
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>78</v>
       </c>
       <c r="C42">
@@ -6833,7 +6833,7 @@
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C43">
@@ -6844,7 +6844,7 @@
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>80</v>
       </c>
       <c r="C44">
@@ -6852,7 +6852,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>81</v>
       </c>
       <c r="C45">
@@ -6860,7 +6860,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>82</v>
       </c>
       <c r="C46">
@@ -6868,7 +6868,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>83</v>
       </c>
       <c r="C47">
@@ -6876,7 +6876,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C48">
@@ -6887,7 +6887,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>85</v>
       </c>
       <c r="C49">
@@ -6898,7 +6898,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C50">
@@ -6912,7 +6912,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C51">
@@ -6920,7 +6920,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>88</v>
       </c>
       <c r="C52">
@@ -6928,7 +6928,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>89</v>
       </c>
       <c r="C53">
@@ -6939,7 +6939,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>90</v>
       </c>
       <c r="C54">
@@ -6947,7 +6947,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>91</v>
       </c>
       <c r="C55">
@@ -6958,7 +6958,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>92</v>
       </c>
       <c r="C56">
@@ -6966,7 +6966,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C57">
@@ -6999,43 +6999,43 @@
   <sheetFormatPr defaultColWidth="10.4375" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>98</v>
       </c>
     </row>
